--- a/数据整理/stocks/A股/上证主板/601919-中远海控.xlsx
+++ b/数据整理/stocks/A股/上证主板/601919-中远海控.xlsx
@@ -451,1023 +451,1381 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>137.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5261</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1321</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8954</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5495</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安核心混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4862</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4088</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新3年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3916</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3218</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>110030</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达沪深300量化增强</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2947</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>000121</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>华夏永福混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>29.96</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1.67</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2943</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2775</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2228</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1929</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>040011</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安核心混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001073</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>41.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>41.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006022</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国大盘价值量化精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>72.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001046</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏可转债增强债券I</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>41.59</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000042</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002804</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化对冲稳健收益定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>94.67</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>2.30</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>110030</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达沪深300量化增强</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001397</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>建信精工制造指数增强</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>91.79</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001073</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化绝对收益策略定期开放混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>82.04</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002804</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化对冲稳健收益定期开放混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>79.36</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>080001</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>长盛成长价值混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>72.65</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007353</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>工银瑞信科技创新3年封闭运作混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>87.26</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>288001</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华夏经典配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>71.90</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>9.25</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>160638</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华中证一带一路主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>167503</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>安信中证一带一路主题指数</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>688888</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>浙商聚潮产业成长混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>92.40</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>9.64</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004221</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>长信量化先锋混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>519983</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>长信量化先锋混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>560006</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>益民核心增长混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>75.44</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>003184</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002166</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华夏永福混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>29.96</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005569</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中融智选红利股票A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005570</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中融智选红利股票C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>590003</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中邮核心优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>77.64</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>001045</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华夏可转债增强债券A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>41.59</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>002802</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>广发东财大数据精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>33.72</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>164811</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>164825</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>512780</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>广发中证京津冀协同发展主题ETF</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>99.08</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>515110</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>易方达中证国企一带一路ETF</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>98.83</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>515150</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>富国中证国企一带一路ETF</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>99.67</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>515990</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>汇添富中证国企一带一路ETF</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>96.96</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>004263</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>华安沪港深机会灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>008969</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>睿远均衡价值三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>008970</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>睿远均衡价值三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>006102</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>浙商丰利增强债券</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>27.50</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>8.55</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1477,7 +1835,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1498,15 +1856,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1518,26 +1886,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000121</t>
+          <t>004263</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏永福混合A</t>
+          <t>华安沪港深机会灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.46</t>
+          <t>52.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4665</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1546,26 +1924,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002166</t>
+          <t>002011</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏永福混合C</t>
+          <t>华夏红利混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.46</t>
+          <t>79.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2674</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1574,26 +1962,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>040011</t>
+          <t>288002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安核心混合</t>
+          <t>华夏收入混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>24.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9625</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1602,26 +2000,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003966</t>
+          <t>040011</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银润利灵活配置混合A</t>
+          <t>华安核心混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20.52</t>
+          <t>9.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6247</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003967</t>
+          <t>519908</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中银润利灵活配置混合C</t>
+          <t>华夏兴华混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20.52</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4842</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1658,25 +2076,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002031</t>
+          <t>688888</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏策略混合</t>
+          <t>浙商聚潮产业成长混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>72.40</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4729</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1686,26 +2114,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004576</t>
+          <t>360007</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>新华恒益量化灵活配置混合</t>
+          <t>光大保德信优势配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.40</t>
+          <t>12.16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4645</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1714,25 +2152,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>960004</t>
+          <t>002031</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏兴华混合H</t>
+          <t>华夏策略混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.82</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>72.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3367</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1742,26 +2190,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004263</t>
+          <t>515150</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华安沪港深机会灵活配置混合</t>
+          <t>富国中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>14.97</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2904</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1770,26 +2228,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001015</t>
+          <t>006102</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏沪深300指数增强A</t>
+          <t>浙商丰利增强债券</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.65</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>34.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1798,26 +2266,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001016</t>
+          <t>000121</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华夏沪深300指数增强C</t>
+          <t>华夏永福混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.65</t>
+          <t>21.62</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2378</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1826,26 +2304,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007251</t>
+          <t>001015</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发睿享稳健增利混合</t>
+          <t>华夏沪深300指数增强A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>31.96</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2069</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1854,26 +2342,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>164811</t>
+          <t>515110</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+          <t>易方达中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2010</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1882,26 +2380,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>164825</t>
+          <t>001045</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+          <t>华夏可转债增强债券A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>18.05</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1910,26 +2418,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006022</t>
+          <t>001046</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>富国大盘价值量化精选混合</t>
+          <t>华夏可转债增强债券I</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>18.05</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1938,25 +2456,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>210007</t>
+          <t>006022</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金鹰技术领先灵活配置混合A</t>
+          <t>富国大盘价值量化精选混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>24.86</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1727</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1966,26 +2494,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002196</t>
+          <t>590003</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金鹰技术领先灵活配置混合C</t>
+          <t>中邮核心优势灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24.86</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1994,26 +2532,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006102</t>
+          <t>002166</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>浙商丰利增强债券</t>
+          <t>华夏永福混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>34.62</t>
+          <t>11.55</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>8.52</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2022,26 +2570,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>288002</t>
+          <t>515990</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华夏收入混合</t>
+          <t>汇添富中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>90.89</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2050,25 +2608,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>360007</t>
+          <t>160638</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>光大保德信优势配置混合</t>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>84.61</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2078,26 +2646,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>000877</t>
+          <t>001016</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化优选灵活配置混合</t>
+          <t>华夏沪深300指数增强C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>88.50</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -2116,15 +2694,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>91.02</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>0.98</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2134,26 +2722,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010246</t>
+          <t>210007</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合C</t>
+          <t>金鹰技术领先灵活配置混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -2162,25 +2760,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001045</t>
+          <t>000877</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华夏可转债增强债券A</t>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>33.46</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2190,26 +2798,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>001046</t>
+          <t>001074</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华夏可转债增强债券I</t>
+          <t>华泰柏瑞量化驱动灵活配置混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>33.46</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>9</v>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -2218,26 +2836,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>006911</t>
+          <t>002261</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>长江量化匠心甄选股票A</t>
+          <t>中银宝利灵活配置混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>90.65</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>3</v>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -2246,26 +2874,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>006957</t>
+          <t>002614</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>长江量化匠心甄选股票C</t>
+          <t>中银颐利灵活配置混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>90.65</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>3</v>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -2274,26 +2912,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>001074</t>
+          <t>003966</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化驱动灵活配置混合A</t>
+          <t>中银润利灵活配置混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>88.14</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>8</v>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -2302,26 +2950,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>006531</t>
+          <t>002434</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化驱动灵活配置混合C</t>
+          <t>中银宏利灵活配置混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>88.14</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -2330,26 +2988,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>512780</t>
+          <t>002615</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>广发中证京津冀协同发展主题ETF</t>
+          <t>中银颐利灵活配置混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>99.46</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -2358,26 +3026,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>001397</t>
+          <t>003967</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>建信精工制造指数增强</t>
+          <t>中银润利灵活配置混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>86.37</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>4</v>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -2386,26 +3064,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>515110</t>
+          <t>007251</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>易方达中证国企一带一路ETF</t>
+          <t>广发睿享稳健增利混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>99.12</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>2</v>
+          <t>31.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -2414,26 +3102,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>515150</t>
+          <t>002288</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>富国中证国企一带一路ETF</t>
+          <t>中银稳进策略灵活配置混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>98.72</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>2</v>
+          <t>34.30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -2442,26 +3140,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>515990</t>
+          <t>167503</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>汇添富中证国企一带一路ETF</t>
+          <t>安信中证一带一路主题指数</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>97.53</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>2</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2470,26 +3178,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>519908</t>
+          <t>002435</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华夏兴华混合A</t>
+          <t>中银宏利灵活配置混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>89.82</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -2498,25 +3216,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>002011</t>
+          <t>560006</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华夏红利混合</t>
+          <t>益民核心增长混合</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>91.36</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
+          <t>78.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2526,26 +3254,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>560006</t>
+          <t>002262</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>益民核心增长混合</t>
+          <t>中银宝利灵活配置混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>78.04</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>6</v>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -2554,26 +3292,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>160638</t>
+          <t>004730</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>鹏华中证一带一路主题指数（LOF）</t>
+          <t>建信量化事件驱动股票</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>1</v>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -2582,25 +3330,35 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>590003</t>
+          <t>512780</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中邮核心优势灵活配置混合</t>
+          <t>广发中证京津冀协同发展主题ETF</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>79.04</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2610,26 +3368,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>002261</t>
+          <t>002196</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中银宝利灵活配置混合A</t>
+          <t>金鹰技术领先灵活配置混合C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>7</v>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -2638,26 +3406,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>002262</t>
+          <t>001397</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中银宝利灵活配置混合C</t>
+          <t>建信精工制造指数增强</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>7</v>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -2666,26 +3444,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>002288</t>
+          <t>164811</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中银稳进策略灵活配置混合</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>34.30</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>3</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2694,26 +3482,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>688888</t>
+          <t>163821</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>浙商聚潮产业成长混合</t>
+          <t>中银沪深300等权重指数(LOF)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>9.69</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>1</v>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -2722,26 +3520,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>002434</t>
+          <t>004576</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中银宏利灵活配置混合A</t>
+          <t>新华恒益量化灵活配置混合</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>24.06</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>7</v>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -2750,26 +3558,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>002435</t>
+          <t>006911</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中银宏利灵活配置混合C</t>
+          <t>长江量化匠心甄选股票A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>24.06</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>7</v>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -2778,26 +3596,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>167503</t>
+          <t>006957</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>安信中证一带一路主题指数</t>
+          <t>长江量化匠心甄选股票C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>1</v>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -2806,26 +3634,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>002614</t>
+          <t>164825</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中银颐利灵活配置混合A</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>26.16</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>7</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2834,26 +3672,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>002615</t>
+          <t>006531</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中银颐利灵活配置混合C</t>
+          <t>华泰柏瑞量化驱动灵活配置混合C</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>26.16</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>7</v>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -2862,26 +3710,30 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>004730</t>
+          <t>960004</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>建信量化事件驱动股票</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>90.45</t>
-        </is>
-      </c>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>6</v>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2890,25 +3742,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>163821</t>
+          <t>010246</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中银沪深300等权重指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601919-中远海控.xlsx
+++ b/数据整理/stocks/A股/上证主板/601919-中远海控.xlsx
@@ -3,33 +3,183 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="16920" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="23">
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -37,15 +187,201 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -69,26 +405,316 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -441,7 +1067,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -457,47 +1082,47 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -535,7 +1160,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -573,7 +1198,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -611,7 +1236,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -649,7 +1274,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -687,7 +1312,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -725,7 +1350,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -763,7 +1388,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -801,7 +1426,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -839,7 +1464,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -877,7 +1502,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -915,7 +1540,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -953,7 +1578,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -991,7 +1616,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -1029,7 +1654,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -1067,7 +1692,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -1105,7 +1730,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -1143,7 +1768,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -1181,7 +1806,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -1219,7 +1844,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -1257,7 +1882,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -1295,7 +1920,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -1333,7 +1958,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -1371,7 +1996,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -1409,7 +2034,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -1447,7 +2072,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -1485,7 +2110,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -1523,7 +2148,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -1561,7 +2186,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -1599,7 +2224,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -1637,7 +2262,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -1675,7 +2300,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -1713,7 +2338,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -1751,7 +2376,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -1789,7 +2414,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -1837,6 +2462,1948 @@
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4665</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2674</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9625</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安核心混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6247</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4842</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4729</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4645</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3367</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2904</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>34.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2378</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001015</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2069</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2010</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1727</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001016</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000877</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001074</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>31.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>34.30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>78.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004730</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信量化事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004576</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>新华恒益量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006531</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H158"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -1886,36 +4453,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004263</t>
+          <t>002011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安沪港深机会灵活配置混合</t>
+          <t>华夏红利混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>52.59</t>
+          <t>88.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>92.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.4665</t>
+          <t>2.8972</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1924,36 +4491,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002011</t>
+          <t>512960</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏红利混合</t>
+          <t>博时中证央企结构调整ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>79.28</t>
+          <t>69.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.36</t>
+          <t>99.16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.2674</t>
+          <t>2.5492</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1962,36 +4529,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>288002</t>
+          <t>512950</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏收入混合</t>
+          <t>华夏中证央企结构调整ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.43</t>
+          <t>70.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.89</t>
+          <t>98.33</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9625</t>
+          <t>2.5416</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2000,32 +4567,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>040011</t>
+          <t>011336</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安核心混合</t>
+          <t>兴全汇吉一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.98</t>
+          <t>38.59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>39.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.26</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6247</t>
+          <t>2.4119</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2038,36 +4605,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519908</t>
+          <t>100038</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏兴华混合A</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>63.76</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.82</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4842</t>
+          <t>1.1158</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2076,36 +4643,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>688888</t>
+          <t>163803</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浙商聚潮产业成长混合</t>
+          <t>中银持续增长混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>23.88</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>89.48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4729</t>
+          <t>0.9456</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2114,36 +4681,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>360007</t>
+          <t>010892</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>光大保德信优势配置混合</t>
+          <t>中银证券精选行业股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12.16</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>84.61</t>
+          <t>88.50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4645</t>
+          <t>0.9167</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -2152,36 +4719,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002031</t>
+          <t>360001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏策略混合</t>
+          <t>光大保德信量化股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>25.37</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>72.40</t>
+          <t>91.37</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3367</t>
+          <t>0.8677</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -2190,36 +4757,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>515150</t>
+          <t>159959</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国中证国企一带一路ETF</t>
+          <t>银华中证央企结构调整ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>14.97</t>
+          <t>23.42</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98.72</t>
+          <t>98.80</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2904</t>
+          <t>0.8103</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -2228,36 +4795,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006102</t>
+          <t>288002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>浙商丰利增强债券</t>
+          <t>华夏收入混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>26.25</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>34.62</t>
+          <t>91.26</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8.52</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2709</t>
+          <t>0.6142</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -2266,36 +4833,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000121</t>
+          <t>515150</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华夏永福混合A</t>
+          <t>富国中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21.62</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29.46</t>
+          <t>98.81</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2378</t>
+          <t>0.6127</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -2304,36 +4871,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001015</t>
+          <t>002031</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏沪深300指数增强A</t>
+          <t>华夏策略混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89.65</t>
+          <t>73.13</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.2069</t>
+          <t>0.5656</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -2342,36 +4909,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>515110</t>
+          <t>010981</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>易方达中证国企一带一路ETF</t>
+          <t>兴全汇虹一年持有期混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.31</t>
+          <t>12.88</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>99.12</t>
+          <t>20.04</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.2010</t>
+          <t>0.5551</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2380,36 +4947,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001045</t>
+          <t>005136</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华夏可转债增强债券A</t>
+          <t>华安幸福生活混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>18.05</t>
+          <t>22.36</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>33.46</t>
+          <t>85.32</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1949</t>
+          <t>0.4964</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -2418,36 +4985,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001046</t>
+          <t>360007</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华夏可转债增强债券I</t>
+          <t>光大保德信优势配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>18.05</t>
+          <t>13.55</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33.46</t>
+          <t>88.83</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1949</t>
+          <t>0.4444</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -2456,36 +5023,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006022</t>
+          <t>515110</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>富国大盘价值量化精选混合</t>
+          <t>易方达中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>10.36</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1727</t>
+          <t>0.4051</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2494,32 +5061,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>590003</t>
+          <t>519997</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中邮核心优势灵活配置混合</t>
+          <t>长信银利精选混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>79.04</t>
+          <t>79.86</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1665</t>
+          <t>0.3664</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -2532,36 +5099,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002166</t>
+          <t>001113</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华夏永福混合C</t>
+          <t>南方大数据100指数A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>11.55</t>
+          <t>27.66</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>29.46</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1270</t>
+          <t>0.3540</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -2570,36 +5137,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>515990</t>
+          <t>590003</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>汇添富中证国企一带一路ETF</t>
+          <t>中邮核心优势灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>97.53</t>
+          <t>75.27</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>8.83</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.1070</t>
+          <t>0.3143</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2608,36 +5175,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>160638</t>
+          <t>000172</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鹏华中证一带一路主题指数（LOF）</t>
+          <t>华泰柏瑞量化增强混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>15.39</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>91.38</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1065</t>
+          <t>0.2724</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -2646,36 +5213,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001016</t>
+          <t>519983</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华夏沪深300指数增强C</t>
+          <t>长信量化先锋混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>11.47</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>89.65</t>
+          <t>92.27</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0673</t>
+          <t>0.2673</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -2684,36 +5251,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>460009</t>
+          <t>001015</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合A</t>
+          <t>华夏沪深300指数增强A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>13.83</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0662</t>
+          <t>0.2642</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -2722,36 +5289,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>210007</t>
+          <t>004686</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金鹰技术领先灵活配置混合A</t>
+          <t>华夏研究精选股票</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>9.21</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>24.86</t>
+          <t>90.83</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0642</t>
+          <t>0.2616</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2760,36 +5327,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>000877</t>
+          <t>610001</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化优选灵活配置混合</t>
+          <t>信达澳银领先增长混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>10.23</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>88.50</t>
+          <t>89.77</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0589</t>
+          <t>0.2373</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -2798,36 +5365,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>001074</t>
+          <t>008592</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化驱动灵活配置混合A</t>
+          <t>天弘沪深300指数增强A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>88.14</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0545</t>
+          <t>0.2328</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -2836,36 +5403,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>002261</t>
+          <t>009640</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中银宝利灵活配置混合A</t>
+          <t>中银证券优选行业龙头混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>91.54</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0538</t>
+          <t>0.2138</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -2874,36 +5441,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>002614</t>
+          <t>000545</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中银颐利灵活配置混合A</t>
+          <t>中邮核心竞争力灵活配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>26.16</t>
+          <t>67.74</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0535</t>
+          <t>0.2138</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -2912,36 +5479,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>003966</t>
+          <t>515990</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中银润利灵活配置混合A</t>
+          <t>汇添富中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20.52</t>
+          <t>96.16</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0534</t>
+          <t>0.2106</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2950,36 +5517,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>002434</t>
+          <t>860010</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中银宏利灵活配置混合A</t>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>12.83</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>24.06</t>
+          <t>60.01</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0532</t>
+          <t>0.1886</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -2988,36 +5555,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>002615</t>
+          <t>008835</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中银颐利灵活配置混合C</t>
+          <t>富国量化对冲策略三个月持有期灵活配置混合A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>12.14</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>26.16</t>
+          <t>77.89</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0399</t>
+          <t>0.1809</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -3026,36 +5593,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>003967</t>
+          <t>000690</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中银润利灵活配置混合C</t>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>20.52</t>
+          <t>92.97</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0384</t>
+          <t>0.1745</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -3064,36 +5631,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>007251</t>
+          <t>006102</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>广发睿享稳健增利混合</t>
+          <t>浙商丰利增强债券</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>9.51</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>31.96</t>
+          <t>36.30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0356</t>
+          <t>0.1531</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -3102,36 +5669,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>002288</t>
+          <t>005137</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中银稳进策略灵活配置混合</t>
+          <t>长信沪深300指数增强A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>34.30</t>
+          <t>92.22</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0322</t>
+          <t>0.1361</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -3140,36 +5707,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>167503</t>
+          <t>450008</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>安信中证一带一路主题指数</t>
+          <t>国富沪深300指数增强</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>91.16</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0297</t>
+          <t>0.1221</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -3178,36 +5745,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>002435</t>
+          <t>210007</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中银宏利灵活配置混合C</t>
+          <t>金鹰技术领先灵活配置混合A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>24.06</t>
+          <t>23.85</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0269</t>
+          <t>0.1217</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -3216,36 +5783,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>560006</t>
+          <t>160638</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>益民核心增长混合</t>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>78.04</t>
+          <t>94.79</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0222</t>
+          <t>0.1180</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -3254,36 +5821,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>002262</t>
+          <t>011410</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中银宝利灵活配置混合C</t>
+          <t>中信建投量化进取6个月持有期混合A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>15.11</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>79.98</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0202</t>
+          <t>0.1179</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -3292,36 +5859,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>004730</t>
+          <t>011337</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>建信量化事件驱动股票</t>
+          <t>兴全汇吉一年持有期混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>90.45</t>
+          <t>39.91</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0179</t>
+          <t>0.1088</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -3330,32 +5897,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>512780</t>
+          <t>007448</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>广发中证京津冀协同发展主题ETF</t>
+          <t>长信沪深300指数增强C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>99.46</t>
+          <t>92.22</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0169</t>
+          <t>0.1070</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -3368,36 +5935,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>002196</t>
+          <t>590006</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金鹰技术领先灵活配置混合C</t>
+          <t>中邮中小盘灵活配置混合</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>24.86</t>
+          <t>77.41</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0095</t>
+          <t>0.1068</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -3406,36 +5973,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>001397</t>
+          <t>007470</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>建信精工制造指数增强</t>
+          <t>博道叁佰智航股票A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>86.37</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.0065</t>
+          <t>0.1058</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -3444,36 +6011,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>164811</t>
+          <t>001105</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+          <t>信达澳银转型创新股票</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>93.55</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.0053</t>
+          <t>0.0994</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -3482,36 +6049,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>163821</t>
+          <t>010301</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中银沪深300等权重指数(LOF)</t>
+          <t>达诚成长先锋混合A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>85.56</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.0915</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -3520,36 +6087,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>004576</t>
+          <t>002067</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>新华恒益量化灵活配置混合</t>
+          <t>诺安精选回报灵活配置混合</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>89.40</t>
+          <t>32.41</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0915</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -3558,36 +6125,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>006911</t>
+          <t>460009</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>长江量化匠心甄选股票A</t>
+          <t>华泰柏瑞量化先行混合A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>90.65</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0905</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -3596,36 +6163,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>006957</t>
+          <t>000199</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>长江量化匠心甄选股票C</t>
+          <t>国泰量化策略收益混合</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>90.65</t>
+          <t>92.06</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0019</t>
+          <t>0.0849</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -3634,36 +6201,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>164825</t>
+          <t>519965</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+          <t>长信量化多策略股票A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>92.15</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0820</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -3672,32 +6239,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>006531</t>
+          <t>001016</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化驱动灵活配置混合C</t>
+          <t>华夏沪深300指数增强C</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>88.14</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0810</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -3710,30 +6277,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>960004</t>
+          <t>008318</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>华夏兴华混合H</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>博道久航混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>89.82</t>
+          <t>89.74</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -3742,30 +6315,4082 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>010246</t>
+          <t>008593</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>天弘沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
       </c>
       <c r="H51" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004881</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000877</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000844</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方绝对收益策略定期开放混合发起</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>44.11</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005870</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>510010</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>交银上证180公司治理ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009106</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>80.37</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010982</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001074</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005248</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009641</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002545</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东方岳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>660006</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>农银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007471</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博道叁佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008836</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>富国量化对冲策略三个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>77.89</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005399</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001073</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>70.67</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009107</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>80.37</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008184</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002804</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化对冲稳健收益定期开放混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>56.93</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010893</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>23.85</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008319</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>博道久航混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004858</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>长信量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010461</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>民生加银康利混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>004730</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>建信量化事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002411</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>000057</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中银消费主题混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009669</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001741</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001742</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>006255</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中邮中证价值回报量化策略指数A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006531</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005418</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>申万菱信量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010872</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010311</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中银量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>008212</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>960011</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中银持续增长混合H</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010873</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>012236</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中银持续增长混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>006256</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中邮中证价值回报量化策略指数C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>010234</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>960041</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合H</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>860028</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>60.01</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>860029</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>60.01</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601919-中远海控.xlsx
+++ b/数据整理/stocks/A股/上证主板/601919-中远海控.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -10195,7 +10196,6 @@
           <t>华泰柏瑞量化增强混合H</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
           <t>91.38</t>
@@ -10391,6 +10391,2144 @@
       </c>
       <c r="H158" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8520</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8462</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7982</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>71.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7606</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7956</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010892</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7589</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6556</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6257</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6025</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5965</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3690</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>200002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2622</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2574</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2328</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1718</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009640</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1571</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000172</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006912</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>860010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>860029</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>516720</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浦银安盛中证ESG 120策略交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>400011</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方核心动力混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009641</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>27.88</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>58.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>42.58</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010893</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>42.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>860028</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005399</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009669</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>27.88</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010921</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>民生加银润利混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>516400</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国中证ESG120策略交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010234</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>960041</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合H</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>58.95</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601919-中远海控.xlsx
+++ b/数据整理/stocks/A股/上证主板/601919-中远海控.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -12477,7 +12478,6 @@
           <t>华泰柏瑞量化增强混合H</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
           <t>91.13</t>
@@ -12529,6 +12529,106 @@
       </c>
       <c r="H56" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>55</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>157</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.32</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601919-中远海控.xlsx
+++ b/数据整理/stocks/A股/上证主板/601919-中远海控.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -12542,7 +12543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12553,17 +12554,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12573,14 +12594,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>55</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.14</v>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>41.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9499</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -12589,14 +12632,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>157</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.77</v>
+          <t>010892</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9523</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -12605,14 +12670,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.19</v>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6232</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -12621,13 +12708,1631 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009640</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6092</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3602</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>58.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3379</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2772</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000172</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>960041</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合H</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008593</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>41.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009641</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009244</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保稳丰6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005248</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010893</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008184</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>59.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002804</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化对冲稳健收益定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009245</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国寿安保稳丰6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.32</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008592</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天弘沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010234</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>157</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>35</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>10.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601919-中远海控.xlsx
+++ b/数据整理/stocks/A股/上证主板/601919-中远海控.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -14231,7 +14232,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14242,17 +14243,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14262,14 +14283,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>43</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.83</v>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6037</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -14278,14 +14321,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>55</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.14</v>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1481</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -14294,14 +14359,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>157</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26.77</v>
+          <t>010892</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8278</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -14310,14 +14397,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.19</v>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8113</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -14326,13 +14435,1754 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010981</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7613</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5900</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5175</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3500</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2943</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2593</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001974</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2539</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010982</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>65.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000172</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009640</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004772</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009641</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002545</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方岳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000199</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰量化策略收益混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010893</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005258</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城量化平衡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010234</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009384</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>970083</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东海证券海盈6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002804</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化对冲稳健收益定期开放混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004773</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20.48</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006201</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>景顺长城量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>46.30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>960041</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合H</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>55</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>157</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>35</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>10.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601919-中远海控.xlsx
+++ b/数据整理/stocks/A股/上证主板/601919-中远海控.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -16065,7 +16066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16076,17 +16077,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -16096,14 +16117,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>47</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.18</v>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0553</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -16112,14 +16155,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>43</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.83</v>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3024</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -16128,14 +16193,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>55</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.14</v>
+          <t>010892</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8110</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -16144,14 +16231,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>157</v>
-      </c>
-      <c r="D5" t="n">
-        <v>26.77</v>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7889</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -16160,14 +16269,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11.19</v>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7236</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -16176,13 +16307,1019 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>35.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5256</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4883</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3528</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2928</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2525</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015147</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏兴融灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009640</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>38.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>35.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010893</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009641</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014181</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011907</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.640000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>157</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>35</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>10.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601919-中远海控.xlsx
+++ b/数据整理/stocks/A股/上证主板/601919-中远海控.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1081,7 +1082,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1112,14 +1113,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>9.640000000000001</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="3">
@@ -1128,14 +1129,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>9.18</v>
+        <v>9.640000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1144,14 +1145,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
-        <v>6.83</v>
+        <v>9.18</v>
       </c>
     </row>
     <row r="5">
@@ -1160,14 +1161,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>14.14</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="6">
@@ -1176,14 +1177,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="D6" t="n">
-        <v>26.77</v>
+        <v>14.14</v>
       </c>
     </row>
     <row r="7">
@@ -1192,14 +1193,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="D7" t="n">
-        <v>11.19</v>
+        <v>26.77</v>
       </c>
     </row>
     <row r="8">
@@ -1208,13 +1209,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>35</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>10.32</v>
       </c>
     </row>
@@ -1224,6 +1241,898 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3968</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8593</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010892</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6320</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>61.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6257</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>61.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2800</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成投资严选六月持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>66.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2071</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>60.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>66.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009640</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大摩ESG量化混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009641</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010893</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成投资严选六月持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>66.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>60.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2343,7 +3252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4176,7 +5085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5864,7 +6773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8001,7 +8910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14002,7 +14911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15944,7 +16853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601919-中远海控.xlsx
+++ b/数据整理/stocks/A股/上证主板/601919-中远海控.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1082,7 +1083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1113,14 +1114,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>4.86</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="3">
@@ -1129,14 +1130,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>9.640000000000001</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="4">
@@ -1145,14 +1146,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>9.18</v>
+        <v>9.640000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1161,14 +1162,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D5" t="n">
-        <v>6.83</v>
+        <v>9.18</v>
       </c>
     </row>
     <row r="6">
@@ -1177,14 +1178,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D6" t="n">
-        <v>14.14</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="7">
@@ -1193,14 +1194,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="D7" t="n">
-        <v>26.77</v>
+        <v>14.14</v>
       </c>
     </row>
     <row r="8">
@@ -1209,14 +1210,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="D8" t="n">
-        <v>11.19</v>
+        <v>26.77</v>
       </c>
     </row>
     <row r="9">
@@ -1225,14 +1226,1414 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>50</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>35</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>10.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>137.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5261</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1321</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8954</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5495</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安核心混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4862</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4088</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新3年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3916</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3218</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>110030</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达沪深300量化增强</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2947</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2943</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2775</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2228</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1929</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001073</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>41.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>41.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>72.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002804</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化对冲稳健收益定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1241,6 +2642,784 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6664</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8003</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7148</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4271</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3745</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3198</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>62.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2817</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>63.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2504</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成投资严选六月持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1938</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>66.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516530</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>167601</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国金沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成投资严选六月持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>66.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2132,7 +4311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3252,7 +5431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5085,7 +7264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6773,7 +8952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8910,7 +11089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14911,7 +17090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16851,1388 +19030,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008969</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>睿远均衡价值三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>137.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.5261</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004263</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安沪港深机会灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>45.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.1321</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>288001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏经典配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.68</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>71.90</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8954</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>688888</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浙商聚潮产业成长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.40</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.64</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5495</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>040011</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安核心混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4862</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>515150</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国中证国企一带一路ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>22.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>99.67</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4088</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007353</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>工银瑞信科技创新3年封闭运作混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>21.28</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.26</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3916</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519983</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长信量化先锋混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12.72</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3218</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>110030</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>易方达沪深300量化增强</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>14.81</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2947</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000121</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华夏永福混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>17.62</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>29.96</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2943</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008970</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>睿远均衡价值三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>15.08</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2775</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>515110</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>易方达中证国企一带一路ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>12.24</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>98.83</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2228</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002166</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华夏永福混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>11.55</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>29.96</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1929</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006102</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>浙商丰利增强债券</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>27.50</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>8.55</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1830</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006022</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>富国大盘价值量化精选混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1560</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001073</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化绝对收益策略定期开放混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>10.06</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>82.04</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1217</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>515990</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>汇添富中证国企一带一路ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>96.96</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1083</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001046</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华夏可转债增强债券I</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>41.59</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1071</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001045</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华夏可转债增强债券A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>41.59</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1071</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>160638</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>鹏华中证一带一路主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1036</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002802</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>广发东财大数据精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>33.72</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0761</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>080001</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>长盛成长价值混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>72.65</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0752</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>000042</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0614</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>590003</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中邮核心优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>77.64</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0613</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>002804</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化对冲稳健收益定期开放混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>79.36</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0599</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>167503</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>安信中证一带一路主题指数</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0355</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>560006</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>益民核心增长混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>75.44</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0267</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>512780</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>广发中证京津冀协同发展主题ETF</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>99.08</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>005569</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>中融智选红利股票A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>001397</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>建信精工制造指数增强</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>91.79</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>164811</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>005570</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>中融智选红利股票C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>004221</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>长信量化先锋混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>164825</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>003184</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>